--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/136.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/136.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1990532995699622</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.24306792808656</v>
+        <v>-1.245355823445014</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1279401381260417</v>
+        <v>-0.1378830656251299</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1680155381253036</v>
+        <v>-0.1609503654133965</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1875819496109559</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.321583474223267</v>
+        <v>-1.321746999609448</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.211491390128292</v>
+        <v>-0.2183141948571083</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1718525445082117</v>
+        <v>-0.16447492150485</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1774353934787645</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.432515008074328</v>
+        <v>-1.430901654933874</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2346798739081039</v>
+        <v>-0.2440563027479196</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1775978337459374</v>
+        <v>-0.1687324217379398</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1655888921589751</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.61218560604537</v>
+        <v>-1.611627867674643</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2500220592473725</v>
+        <v>-0.2608030543506424</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1721314136935753</v>
+        <v>-0.1647829916520318</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1432503765182593</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.729094576780612</v>
+        <v>-1.72772651171943</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2634486614913689</v>
+        <v>-0.272083385901003</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1836891543812085</v>
+        <v>-0.1777131775451192</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1030136335567763</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.580325896653652</v>
+        <v>-1.57683638171638</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1844615198212992</v>
+        <v>-0.1957447714678417</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1581397728383972</v>
+        <v>-0.1566038022467613</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03992611382827112</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.402036504176609</v>
+        <v>-1.4013473614777</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1079608400500471</v>
+        <v>-0.1193973967461349</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1452738290613098</v>
+        <v>-0.1446255677089463</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.04825516166619917</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.151508312305676</v>
+        <v>-1.146497427257677</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02403042746428114</v>
+        <v>0.01417510285064743</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1387824552491297</v>
+        <v>-0.1363821361876758</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1628553588317482</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7748451058130498</v>
+        <v>-0.7647751541300525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1217660466697094</v>
+        <v>0.1075524785047133</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.116948896097681</v>
+        <v>-0.1173912906692263</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3043982527691617</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4114551965148747</v>
+        <v>-0.3915182398335164</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1481184546625205</v>
+        <v>0.1351094261725241</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05869297727042391</v>
+        <v>-0.06049321656651434</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.475443168875026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08660224844826434</v>
+        <v>0.1040731839040778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1500603186234291</v>
+        <v>0.1396808367451592</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04438349785154841</v>
+        <v>0.04172913042227639</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6741448182080207</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5958203010183094</v>
+        <v>0.6219566218936661</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0853028056473556</v>
+        <v>0.06969635160363252</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1890158617369641</v>
+        <v>0.189417374961964</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.8921477312757178</v>
       </c>
       <c r="E14" t="n">
-        <v>1.140343776474618</v>
+        <v>1.167910944479065</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01796639582261667</v>
+        <v>-0.03739379572024782</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3119475308472038</v>
+        <v>0.3153771838127484</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.115903587769677</v>
       </c>
       <c r="E15" t="n">
-        <v>1.768557208501813</v>
+        <v>1.798415191960895</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1610846898377601</v>
+        <v>-0.1845870839571174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5027597557999708</v>
+        <v>0.5036124238850614</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.334071429245377</v>
       </c>
       <c r="E16" t="n">
-        <v>2.434844314595634</v>
+        <v>2.459603810121263</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3608878909343428</v>
+        <v>-0.3924804115254252</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6346020984090263</v>
+        <v>0.6365906839088439</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.538505633954457</v>
       </c>
       <c r="E17" t="n">
-        <v>3.054869796929013</v>
+        <v>3.073275163163008</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.4881281619608541</v>
+        <v>-0.5206332126087544</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7927457473277111</v>
+        <v>0.8000985495135273</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.726101355541979</v>
       </c>
       <c r="E18" t="n">
-        <v>3.679605394403663</v>
+        <v>3.693778081222114</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6235855836429995</v>
+        <v>-0.6525879789208099</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9510295608631232</v>
+        <v>0.9539043955541223</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.899753733836141</v>
       </c>
       <c r="E19" t="n">
-        <v>4.199395655199978</v>
+        <v>4.211455652430884</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7760525655842313</v>
+        <v>-0.8056681810602233</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087560117892086</v>
+        <v>1.095120246906812</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.061448593683605</v>
       </c>
       <c r="E20" t="n">
-        <v>4.712907709205385</v>
+        <v>4.725072829898837</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9741358300297236</v>
+        <v>-1.01016981691335</v>
       </c>
       <c r="G20" t="n">
-        <v>1.239592005502227</v>
+        <v>1.246928747159044</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.205000201614772</v>
       </c>
       <c r="E21" t="n">
-        <v>5.209005769630525</v>
+        <v>5.213104124621706</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.154146619205948</v>
+        <v>-1.184283471850395</v>
       </c>
       <c r="G21" t="n">
-        <v>1.404101464097274</v>
+        <v>1.412717207881726</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.318637044361632</v>
       </c>
       <c r="E22" t="n">
-        <v>5.610708800882236</v>
+        <v>5.609575803563691</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.347604451299441</v>
+        <v>-1.379049507033342</v>
       </c>
       <c r="G22" t="n">
-        <v>1.517263951431244</v>
+        <v>1.523333371345151</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.396569781458558</v>
       </c>
       <c r="E23" t="n">
-        <v>5.879141562491982</v>
+        <v>5.878373577196164</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.531161697288483</v>
+        <v>-1.560619627570657</v>
       </c>
       <c r="G23" t="n">
-        <v>1.65858784634266</v>
+        <v>1.668613996582931</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.438592421491347</v>
       </c>
       <c r="E24" t="n">
-        <v>6.186134194182626</v>
+        <v>6.184551502052082</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.67892878442508</v>
+        <v>-1.710026348713344</v>
       </c>
       <c r="G24" t="n">
-        <v>1.792903510417715</v>
+        <v>1.798140702919805</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.448605136142165</v>
       </c>
       <c r="E25" t="n">
-        <v>6.351538662257401</v>
+        <v>6.357848990106308</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.827973413641222</v>
+        <v>-1.855276312941214</v>
       </c>
       <c r="G25" t="n">
-        <v>1.852339148102427</v>
+        <v>1.862163811706151</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.430316612980802</v>
       </c>
       <c r="E26" t="n">
-        <v>6.448100402797738</v>
+        <v>6.457177521778918</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.90004211743252</v>
+        <v>-1.936707575115465</v>
       </c>
       <c r="G26" t="n">
-        <v>1.881126916310873</v>
+        <v>1.898113115800505</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.385773413560392</v>
       </c>
       <c r="E27" t="n">
-        <v>6.482175005143366</v>
+        <v>6.494477370357362</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.967483198799684</v>
+        <v>-2.005608704573537</v>
       </c>
       <c r="G27" t="n">
-        <v>1.976524998522757</v>
+        <v>1.989593888984481</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.316875098717316</v>
       </c>
       <c r="E28" t="n">
-        <v>6.57984054204043</v>
+        <v>6.595963853108334</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.034313980064848</v>
+        <v>-2.066602213571248</v>
       </c>
       <c r="G28" t="n">
-        <v>2.025661456974198</v>
+        <v>2.037588589828832</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.226191981683879</v>
       </c>
       <c r="E29" t="n">
-        <v>6.491284245182545</v>
+        <v>6.512903177264629</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.090587153584651</v>
+        <v>-2.12414124878587</v>
       </c>
       <c r="G29" t="n">
-        <v>2.048489308875556</v>
+        <v>2.061518778038825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.117557303755071</v>
       </c>
       <c r="E30" t="n">
-        <v>6.480364545510638</v>
+        <v>6.501627225858542</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.180523195888445</v>
+        <v>-2.204373811477484</v>
       </c>
       <c r="G30" t="n">
-        <v>2.065490108846097</v>
+        <v>2.071298180151731</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.993579533633321</v>
       </c>
       <c r="E31" t="n">
-        <v>6.390467924505299</v>
+        <v>6.411778786440202</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.210276055884982</v>
+        <v>-2.224944429030297</v>
       </c>
       <c r="G31" t="n">
-        <v>2.020787816446745</v>
+        <v>2.031355644528742</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.859303671079551</v>
       </c>
       <c r="E32" t="n">
-        <v>6.203774495216986</v>
+        <v>6.229015806612615</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.241077960434838</v>
+        <v>-2.251684479791244</v>
       </c>
       <c r="G32" t="n">
-        <v>1.978722370899574</v>
+        <v>1.9871015868933</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.718116236366912</v>
       </c>
       <c r="E33" t="n">
-        <v>6.027704375838123</v>
+        <v>6.054334192968208</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.275029188716784</v>
+        <v>-2.280471517975645</v>
       </c>
       <c r="G33" t="n">
-        <v>1.948601578784128</v>
+        <v>1.952724754592854</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.573868277335619</v>
       </c>
       <c r="E34" t="n">
-        <v>5.796186010110822</v>
+        <v>5.821446302131633</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.371375572163712</v>
+        <v>-2.373851813725893</v>
       </c>
       <c r="G34" t="n">
-        <v>1.879339817447601</v>
+        <v>1.881252480446691</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.430054900649245</v>
       </c>
       <c r="E35" t="n">
-        <v>5.600304498186421</v>
+        <v>5.626781010266958</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.378013680809028</v>
+        <v>-2.37836190227871</v>
       </c>
       <c r="G35" t="n">
-        <v>1.816049652802891</v>
+        <v>1.817062926177982</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.289982072136851</v>
       </c>
       <c r="E36" t="n">
-        <v>5.413748313418652</v>
+        <v>5.443758141879189</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.360946448650351</v>
+        <v>-2.361126764589578</v>
       </c>
       <c r="G36" t="n">
-        <v>1.727535697339642</v>
+        <v>1.730562377032096</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.154906678817178</v>
       </c>
       <c r="E37" t="n">
-        <v>5.055137141522021</v>
+        <v>5.084433006466104</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.312189602702546</v>
+        <v>-2.311786629429455</v>
       </c>
       <c r="G37" t="n">
-        <v>1.63355386177594</v>
+        <v>1.636977674549121</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.024402566494004</v>
       </c>
       <c r="E38" t="n">
-        <v>4.831955650393808</v>
+        <v>4.857081617990256</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.215701594590799</v>
+        <v>-2.217328088164071</v>
       </c>
       <c r="G38" t="n">
-        <v>1.55332859932478</v>
+        <v>1.556464782624051</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8999849428785436</v>
       </c>
       <c r="E39" t="n">
-        <v>4.509257281389258</v>
+        <v>4.542723043680977</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.191869959626942</v>
+        <v>-2.197325429318622</v>
       </c>
       <c r="G39" t="n">
-        <v>1.440853794641628</v>
+        <v>1.443367997454173</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7817377331716497</v>
       </c>
       <c r="E40" t="n">
-        <v>4.19756621494207</v>
+        <v>4.235969859877241</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.151683595972771</v>
+        <v>-2.161028633778632</v>
       </c>
       <c r="G40" t="n">
-        <v>1.353499117362561</v>
+        <v>1.361475360083195</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6697223261306183</v>
       </c>
       <c r="E41" t="n">
-        <v>3.916728884751963</v>
+        <v>3.952613946730317</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.067642497836021</v>
+        <v>-2.0779080959632</v>
       </c>
       <c r="G41" t="n">
-        <v>1.239010906362046</v>
+        <v>1.245778229263408</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5640639466734211</v>
       </c>
       <c r="E42" t="n">
-        <v>3.63509290825613</v>
+        <v>3.676197642159482</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.962332149134958</v>
+        <v>-1.974154888551091</v>
       </c>
       <c r="G42" t="n">
-        <v>1.136473188985619</v>
+        <v>1.143964695740071</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4661078971921196</v>
       </c>
       <c r="E43" t="n">
-        <v>3.382475387567107</v>
+        <v>3.421109720100642</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.913732258356926</v>
+        <v>-1.922004160815969</v>
       </c>
       <c r="G43" t="n">
-        <v>1.042608157269189</v>
+        <v>1.051239961582642</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.375511234835224</v>
       </c>
       <c r="E44" t="n">
-        <v>3.125911356888357</v>
+        <v>3.161130636937257</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.875057774500891</v>
+        <v>-1.88392610660507</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9212752408184948</v>
+        <v>0.9283754546845837</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2911134551322327</v>
       </c>
       <c r="E45" t="n">
-        <v>2.861263039930247</v>
+        <v>2.896949535368237</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.752620331669424</v>
+        <v>-1.764659888227057</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8019221495790723</v>
+        <v>0.8083186202653433</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2132144980060663</v>
       </c>
       <c r="E46" t="n">
-        <v>2.636342631525761</v>
+        <v>2.669603987084753</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.696101870070348</v>
+        <v>-1.712001793780344</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7682213195447177</v>
+        <v>0.7740191705137162</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1419665947564903</v>
       </c>
       <c r="E47" t="n">
-        <v>2.327505959096299</v>
+        <v>2.362431769478926</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.639057791158545</v>
+        <v>-1.656560847672359</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6480141001721136</v>
+        <v>0.6560531249606569</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.07704269067215391</v>
       </c>
       <c r="E48" t="n">
-        <v>2.155572155958982</v>
+        <v>2.184190558588883</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.590425049298467</v>
+        <v>-1.608684410723371</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5859197149138575</v>
+        <v>0.5929118852212193</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01748262171406762</v>
       </c>
       <c r="E49" t="n">
-        <v>1.958864256815125</v>
+        <v>1.988358688299572</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.545912563150934</v>
+        <v>-1.561800806476202</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5186260984038756</v>
+        <v>0.5284084206129639</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03620782986116071</v>
       </c>
       <c r="E50" t="n">
-        <v>1.851317114438791</v>
+        <v>1.881034933281146</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.445232026946143</v>
+        <v>-1.4662610995995</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4473669912789857</v>
+        <v>0.4577931946961647</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08444655317253119</v>
       </c>
       <c r="E51" t="n">
-        <v>1.675095150058474</v>
+        <v>1.700432824628104</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.38544159757534</v>
+        <v>-1.407840195337971</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3828211852760939</v>
+        <v>0.3952680952510905</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1279932257791671</v>
       </c>
       <c r="E52" t="n">
-        <v>1.558803779665687</v>
+        <v>1.583043498070953</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.338474770586989</v>
+        <v>-1.362549503557983</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2995780034210254</v>
+        <v>0.3112832089658404</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1675019622651555</v>
       </c>
       <c r="E53" t="n">
-        <v>1.351745599605379</v>
+        <v>1.379844225114917</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.294074708142456</v>
+        <v>-1.319508745886085</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2530199898981287</v>
+        <v>0.2626052056149444</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2032426784385794</v>
       </c>
       <c r="E54" t="n">
-        <v>1.358413639236559</v>
+        <v>1.375678707911555</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.287003695238185</v>
+        <v>-1.311057987535906</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1817550425808752</v>
+        <v>0.1926455412909631</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2359736788739178</v>
       </c>
       <c r="E55" t="n">
-        <v>1.204362505116692</v>
+        <v>1.226872066534231</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.254289857713285</v>
+        <v>-1.278106162172187</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1342903391935243</v>
+        <v>0.1474190916269753</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2664442645682523</v>
       </c>
       <c r="E56" t="n">
-        <v>1.174541022859881</v>
+        <v>1.196456344704421</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.220342279551567</v>
+        <v>-1.242467848321197</v>
       </c>
       <c r="G56" t="n">
-        <v>0.09062468093871781</v>
+        <v>0.09937036900326092</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2946846613098202</v>
       </c>
       <c r="E57" t="n">
-        <v>1.085218200754269</v>
+        <v>1.110385049697262</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.195373997148937</v>
+        <v>-1.220977400471112</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06798663528917843</v>
+        <v>0.0772287397046305</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.320631577959478</v>
       </c>
       <c r="E58" t="n">
-        <v>1.013153147083197</v>
+        <v>1.038452860402463</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.168325146216762</v>
+        <v>-1.191760378123938</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01742909812516227</v>
+        <v>-0.005853836860438105</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.344857100769552</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9104825653304977</v>
+        <v>0.9386206121384901</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.090907556244419</v>
+        <v>-1.113063786023959</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08799176231068878</v>
+        <v>-0.07660922739396456</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3677231413352546</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9013032429829547</v>
+        <v>0.9293814278192198</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.050077311382158</v>
+        <v>-1.07583693985006</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1150070321367724</v>
+        <v>-0.1040887925129572</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3891942594154482</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7831605316108955</v>
+        <v>0.8119117986170696</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.036418561491707</v>
+        <v>-1.057907549293701</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1534909797169439</v>
+        <v>-0.1403403265621293</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4092214798316895</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7239818623901841</v>
+        <v>0.7562576854878118</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.040113943209797</v>
+        <v>-1.061454006106518</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2265839072440152</v>
+        <v>-0.2137719852462914</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4281452501554056</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6616626297259282</v>
+        <v>0.6895276475409207</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.087853135638238</v>
+        <v>-1.10461448772187</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2492102725088273</v>
+        <v>-0.2343849441937404</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.446324470667097</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5884966997943114</v>
+        <v>0.6189401625378487</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.066391888749971</v>
+        <v>-1.085941932687239</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3004185392012681</v>
+        <v>-0.2843434097203633</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4639609442863157</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5228164364247836</v>
+        <v>0.5535898700368662</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.024719196139255</v>
+        <v>-1.04731782049034</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3350946813603497</v>
+        <v>-0.3184340725949905</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4815858369983295</v>
       </c>
       <c r="E66" t="n">
-        <v>0.466950616322344</v>
+        <v>0.4957267041460636</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.049177921758158</v>
+        <v>-1.067857777033244</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.357973634944889</v>
+        <v>-0.3426007885957113</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4994092586404573</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4700809594292523</v>
+        <v>0.4949908399082456</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.050331359749976</v>
+        <v>-1.070001127630698</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3763118389667023</v>
+        <v>-0.3598147555875249</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5174131736204544</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3794995758692766</v>
+        <v>0.4040955460087245</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.078815437955514</v>
+        <v>-1.093827652426237</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3868855072410631</v>
+        <v>-0.3710527457432491</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.534899038474257</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2938662952893905</v>
+        <v>0.3146354793825668</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.115896279320322</v>
+        <v>-1.129208997813227</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3977088437389693</v>
+        <v>-0.382952137684155</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5511177505435806</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2464307928638578</v>
+        <v>0.2616693147886719</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.185336166523939</v>
+        <v>-1.193814665787846</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4369155151241406</v>
+        <v>-0.4203176884266904</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5649255211470827</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1817141612343297</v>
+        <v>0.19746077989478</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.29499745853591</v>
+        <v>-1.298676779725</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4934339767232163</v>
+        <v>-0.4747585015924031</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.57502956850506</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1165346943599836</v>
+        <v>0.1280646941338896</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.334853851321536</v>
+        <v>-1.336665771002354</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4920075097383985</v>
+        <v>-0.4749147267381303</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5798822991477166</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0911094169048995</v>
+        <v>0.1018889519600784</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.324677316127902</v>
+        <v>-1.325535824405357</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5248220905815715</v>
+        <v>-0.5107749678989388</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5778710976070884</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1434857220700672</v>
+        <v>0.1491886699131566</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.36209542860171</v>
+        <v>-1.364016851889346</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5361433034784775</v>
+        <v>-0.5203528833752999</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5677602901852614</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1510984128160652</v>
+        <v>0.1542185355863371</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.417099820330514</v>
+        <v>-1.414629418960696</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.493341993693489</v>
+        <v>-0.4757498742461301</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.548545810188045</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1872550437393282</v>
+        <v>0.191560725559418</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.344138297131624</v>
+        <v>-1.342973178755079</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4905328611665807</v>
+        <v>-0.474616876927585</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5194440817833013</v>
       </c>
       <c r="E77" t="n">
-        <v>0.3152472395326575</v>
+        <v>0.3172256046958388</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.337825049186535</v>
+        <v>-1.334776468772718</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4280340425871429</v>
+        <v>-0.4145782393813284</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4800880723181378</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3985050218686351</v>
+        <v>0.3974114458485445</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.280290394116187</v>
+        <v>-1.277857953996733</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4410124100672304</v>
+        <v>-0.4267652607961432</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4312882272346917</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4751414861123418</v>
+        <v>0.4735003920581605</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.260128590028829</v>
+        <v>-1.259570851658101</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4011603974258774</v>
+        <v>-0.3902698987157894</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3741430597541001</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5889872759528567</v>
+        <v>0.5832230060899491</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.26763469726419</v>
+        <v>-1.266564482013554</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3575078796038891</v>
+        <v>-0.3448156815496198</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3102073180968801</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6387982766222979</v>
+        <v>0.6408934456327519</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.217785735344386</v>
+        <v>-1.217283478801113</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2827884585035456</v>
+        <v>-0.2759189322358201</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2421239627386781</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7475937601163596</v>
+        <v>0.7506072993759951</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.144051846705405</v>
+        <v>-1.143476587757587</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2630267075930963</v>
+        <v>-0.255948394448371</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1731606800472295</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8712320925025991</v>
+        <v>0.8775000789568701</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.101654970241598</v>
+        <v>-1.096479099759327</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2090750105378381</v>
+        <v>-0.2042714523187485</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1065450745384244</v>
       </c>
       <c r="E84" t="n">
-        <v>1.060146254937185</v>
+        <v>1.05989804676173</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.019216274884621</v>
+        <v>-1.009867586958532</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1758311755559379</v>
+        <v>-0.1715225736396664</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04544120949896178</v>
       </c>
       <c r="E85" t="n">
-        <v>1.131089991674438</v>
+        <v>1.131459383841438</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9242562071000097</v>
+        <v>-0.9159543736551028</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1268932836448602</v>
+        <v>-0.1258931507025877</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.006924737485379068</v>
       </c>
       <c r="E86" t="n">
-        <v>1.299915352426211</v>
+        <v>1.297389469228939</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8447405280210311</v>
+        <v>-0.8372738420841239</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.0523622087482438</v>
+        <v>-0.05101896450460779</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.04793624474570121</v>
       </c>
       <c r="E87" t="n">
-        <v>1.393710301834277</v>
+        <v>1.391758217536732</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7425196410803312</v>
+        <v>-0.7319138517479704</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01798391639970758</v>
+        <v>-0.01938848266316174</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.07528877757280369</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470608114686256</v>
+        <v>1.466810529601803</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6176548682977284</v>
+        <v>-0.6062212316978224</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01968824444191867</v>
+        <v>0.01942105564128238</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.08705246476391722</v>
       </c>
       <c r="E89" t="n">
-        <v>1.553984160917598</v>
+        <v>1.549754401598235</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5125255655599384</v>
+        <v>-0.4983849997994877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06906999097263268</v>
+        <v>0.06990075833635974</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08173909134837652</v>
       </c>
       <c r="E90" t="n">
-        <v>1.595979524156405</v>
+        <v>1.592057834984224</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4071568149352394</v>
+        <v>-0.3912802519946982</v>
       </c>
       <c r="G90" t="n">
-        <v>0.08188191297035652</v>
+        <v>0.08109932719362946</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05880022676751664</v>
       </c>
       <c r="E91" t="n">
-        <v>1.6115742978154</v>
+        <v>1.608807506683128</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.243057629853738</v>
+        <v>-0.2309655115648322</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1083000231272585</v>
+        <v>0.10611725123135</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.01852151999996414</v>
       </c>
       <c r="E92" t="n">
-        <v>1.625129384291397</v>
+        <v>1.624139471685761</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1032390445240483</v>
+        <v>-0.08888969188659762</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1307263618036161</v>
+        <v>0.1273492705693443</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03669355357177653</v>
       </c>
       <c r="E93" t="n">
-        <v>1.636346933773848</v>
+        <v>1.632578549651213</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0452887276679118</v>
+        <v>0.05468559718100018</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1207702938717097</v>
+        <v>0.1180823453363468</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1019036022337181</v>
       </c>
       <c r="E94" t="n">
-        <v>1.578913022021773</v>
+        <v>1.576480581902319</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1493069338085202</v>
+        <v>0.1579182974486997</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0624092515819072</v>
+        <v>0.06289690764427071</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1710320088085697</v>
       </c>
       <c r="E95" t="n">
-        <v>1.502945259803702</v>
+        <v>1.496818898014249</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2272472209974084</v>
+        <v>0.2324917137399524</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02356759221946308</v>
+        <v>0.0232843428898268</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2380411162986272</v>
       </c>
       <c r="E96" t="n">
-        <v>1.388576772746642</v>
+        <v>1.38108672604028</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2817756370485756</v>
+        <v>0.2890466765413009</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005211415700438277</v>
+        <v>-0.009232388142800833</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2969441083557312</v>
       </c>
       <c r="E97" t="n">
-        <v>1.251395034269133</v>
+        <v>1.244607270694499</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3347038403921068</v>
+        <v>0.3415062044476505</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03226172668070374</v>
+        <v>-0.03477884958943034</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3434740994199925</v>
       </c>
       <c r="E98" t="n">
-        <v>1.133428988716074</v>
+        <v>1.125652772583895</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3455811986693766</v>
+        <v>0.350948335451557</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04879239116597203</v>
+        <v>-0.05294768803269818</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3774990780683994</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9992929105562011</v>
+        <v>0.9946338970981115</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3484414328794668</v>
+        <v>0.3516871197855568</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09634177734259562</v>
+        <v>-0.0999626966080492</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4006044915684558</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9173623119348594</v>
+        <v>0.9129018650171333</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2991910906769346</v>
+        <v>0.3040807917333878</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1253996544478606</v>
+        <v>-0.123713298902861</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4143443885761812</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7991027967155275</v>
+        <v>0.7922858321790749</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3318917877690167</v>
+        <v>0.3332116712431981</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09835956380423144</v>
+        <v>-0.1018300981163214</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.420133728257809</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6694198652329261</v>
+        <v>0.6673684976651993</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2756740960766681</v>
+        <v>0.2777765653275767</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1791221239528461</v>
+        <v>-0.1791819859245734</v>
       </c>
     </row>
   </sheetData>
